--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>10.98074866666667</v>
+        <v>17.33915166666667</v>
       </c>
       <c r="N2">
-        <v>32.942246</v>
+        <v>52.01745500000001</v>
       </c>
       <c r="O2">
-        <v>0.5942990831189309</v>
+        <v>0.7069602198267303</v>
       </c>
       <c r="P2">
-        <v>0.594299083118931</v>
+        <v>0.7069602198267302</v>
       </c>
       <c r="Q2">
-        <v>9.608579672281778</v>
+        <v>26.56602517371834</v>
       </c>
       <c r="R2">
-        <v>86.477217050536</v>
+        <v>239.094226563465</v>
       </c>
       <c r="S2">
-        <v>0.03152197318678982</v>
+        <v>0.06292415555257465</v>
       </c>
       <c r="T2">
-        <v>0.03152197318678982</v>
+        <v>0.06292415555257462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H3">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I3">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J3">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>14.780035</v>
       </c>
       <c r="O3">
-        <v>0.2666412377882708</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="P3">
-        <v>0.2666412377882707</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="Q3">
-        <v>4.311034039895556</v>
+        <v>7.548365868311667</v>
       </c>
       <c r="R3">
-        <v>38.79930635906</v>
+        <v>67.93529281480501</v>
       </c>
       <c r="S3">
-        <v>0.01414280820347876</v>
+        <v>0.01787902198238068</v>
       </c>
       <c r="T3">
-        <v>0.01414280820347875</v>
+        <v>0.01787902198238067</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H4">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I4">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J4">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.463445333333333</v>
+        <v>2.127843333333333</v>
       </c>
       <c r="N4">
-        <v>7.390336</v>
+        <v>6.38353</v>
       </c>
       <c r="O4">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949621</v>
       </c>
       <c r="P4">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949623</v>
       </c>
       <c r="Q4">
-        <v>2.155609919886222</v>
+        <v>3.260156012576667</v>
       </c>
       <c r="R4">
-        <v>19.400489278976</v>
+        <v>29.34140411319</v>
       </c>
       <c r="S4">
-        <v>0.007071708869922456</v>
+        <v>0.007721989372500572</v>
       </c>
       <c r="T4">
-        <v>0.007071708869922456</v>
+        <v>0.007721989372500571</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H5">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I5">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J5">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1059333333333333</v>
+        <v>0.1326736666666667</v>
       </c>
       <c r="N5">
-        <v>0.3178</v>
+        <v>0.398021</v>
       </c>
       <c r="O5">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="P5">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="Q5">
-        <v>0.09269576275555555</v>
+        <v>0.2032747643203333</v>
       </c>
       <c r="R5">
-        <v>0.8342618648</v>
+        <v>1.829472878883</v>
       </c>
       <c r="S5">
-        <v>0.0003040983628973509</v>
+        <v>0.0004814755992424333</v>
       </c>
       <c r="T5">
-        <v>0.0003040983628973508</v>
+        <v>0.0004814755992424331</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J6">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>10.98074866666667</v>
+        <v>17.33915166666667</v>
       </c>
       <c r="N6">
-        <v>32.942246</v>
+        <v>52.01745500000001</v>
       </c>
       <c r="O6">
-        <v>0.5942990831189309</v>
+        <v>0.7069602198267303</v>
       </c>
       <c r="P6">
-        <v>0.594299083118931</v>
+        <v>0.7069602198267302</v>
       </c>
       <c r="Q6">
-        <v>116.6091820057733</v>
+        <v>184.1317339920334</v>
       </c>
       <c r="R6">
-        <v>1049.48263805196</v>
+        <v>1657.1856059283</v>
       </c>
       <c r="S6">
-        <v>0.3825488921243018</v>
+        <v>0.4361335124888129</v>
       </c>
       <c r="T6">
-        <v>0.3825488921243018</v>
+        <v>0.4361335124888128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J7">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>14.780035</v>
       </c>
       <c r="O7">
-        <v>0.2666412377882708</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="P7">
-        <v>0.2666412377882707</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="Q7">
         <v>52.31846642656667</v>
@@ -883,10 +883,10 @@
         <v>470.8661978391001</v>
       </c>
       <c r="S7">
-        <v>0.1716363242144572</v>
+        <v>0.1239212602626867</v>
       </c>
       <c r="T7">
-        <v>0.1716363242144572</v>
+        <v>0.1239212602626866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>31.85826</v>
       </c>
       <c r="I8">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J8">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.463445333333333</v>
+        <v>2.127843333333333</v>
       </c>
       <c r="N8">
-        <v>7.390336</v>
+        <v>6.38353</v>
       </c>
       <c r="O8">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949621</v>
       </c>
       <c r="P8">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949623</v>
       </c>
       <c r="Q8">
-        <v>26.16036064170666</v>
+        <v>22.59646205086667</v>
       </c>
       <c r="R8">
-        <v>235.44324577536</v>
+        <v>203.3681584578</v>
       </c>
       <c r="S8">
-        <v>0.08582186075674209</v>
+        <v>0.05352186801483677</v>
       </c>
       <c r="T8">
-        <v>0.08582186075674207</v>
+        <v>0.05352186801483677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>31.85826</v>
       </c>
       <c r="I9">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J9">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1059333333333333</v>
+        <v>0.1326736666666667</v>
       </c>
       <c r="N9">
-        <v>0.3178</v>
+        <v>0.398021</v>
       </c>
       <c r="O9">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="P9">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="Q9">
-        <v>1.124950558666667</v>
+        <v>1.408917389273333</v>
       </c>
       <c r="R9">
-        <v>10.124555028</v>
+        <v>12.68025650346</v>
       </c>
       <c r="S9">
-        <v>0.00369052061347314</v>
+        <v>0.003337154744966084</v>
       </c>
       <c r="T9">
-        <v>0.00369052061347314</v>
+        <v>0.003337154744966083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H10">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I10">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J10">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>10.98074866666667</v>
+        <v>17.33915166666667</v>
       </c>
       <c r="N10">
-        <v>32.942246</v>
+        <v>52.01745500000001</v>
       </c>
       <c r="O10">
-        <v>0.5942990831189309</v>
+        <v>0.7069602198267303</v>
       </c>
       <c r="P10">
-        <v>0.594299083118931</v>
+        <v>0.7069602198267302</v>
       </c>
       <c r="Q10">
-        <v>50.51323738894889</v>
+        <v>85.00109322632278</v>
       </c>
       <c r="R10">
-        <v>454.61913650054</v>
+        <v>765.0098390369051</v>
       </c>
       <c r="S10">
-        <v>0.165714077299655</v>
+        <v>0.2013331681098987</v>
       </c>
       <c r="T10">
-        <v>0.165714077299655</v>
+        <v>0.2013331681098986</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H11">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I11">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J11">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>14.780035</v>
       </c>
       <c r="O11">
-        <v>0.2666412377882708</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="P11">
-        <v>0.2666412377882707</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="Q11">
-        <v>22.66352502412778</v>
+        <v>24.15187619085389</v>
       </c>
       <c r="R11">
-        <v>203.97172521715</v>
+        <v>217.366885717685</v>
       </c>
       <c r="S11">
-        <v>0.07435011755062503</v>
+        <v>0.05720601423743599</v>
       </c>
       <c r="T11">
-        <v>0.07435011755062498</v>
+        <v>0.05720601423743599</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H12">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I12">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J12">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.463445333333333</v>
+        <v>2.127843333333333</v>
       </c>
       <c r="N12">
-        <v>7.390336</v>
+        <v>6.38353</v>
       </c>
       <c r="O12">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949621</v>
       </c>
       <c r="P12">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949623</v>
       </c>
       <c r="Q12">
-        <v>11.33225089607111</v>
+        <v>10.43124906135889</v>
       </c>
       <c r="R12">
-        <v>101.99025806464</v>
+        <v>93.88124155222999</v>
       </c>
       <c r="S12">
-        <v>0.03717666097127752</v>
+        <v>0.02470740482448788</v>
       </c>
       <c r="T12">
-        <v>0.03717666097127751</v>
+        <v>0.02470740482448788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H13">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I13">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J13">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1059333333333333</v>
+        <v>0.1326736666666667</v>
       </c>
       <c r="N13">
-        <v>0.3178</v>
+        <v>0.398021</v>
       </c>
       <c r="O13">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="P13">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="Q13">
-        <v>0.4873106357777778</v>
+        <v>0.6504012956234444</v>
       </c>
       <c r="R13">
-        <v>4.385795721999999</v>
+        <v>5.853611660610999</v>
       </c>
       <c r="S13">
-        <v>0.001598674655208098</v>
+        <v>0.001540537285114583</v>
       </c>
       <c r="T13">
-        <v>0.001598674655208098</v>
+        <v>0.001540537285114582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H14">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I14">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J14">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>10.98074866666667</v>
+        <v>17.33915166666667</v>
       </c>
       <c r="N14">
-        <v>32.942246</v>
+        <v>52.01745500000001</v>
       </c>
       <c r="O14">
-        <v>0.5942990831189309</v>
+        <v>0.7069602198267303</v>
       </c>
       <c r="P14">
-        <v>0.594299083118931</v>
+        <v>0.7069602198267302</v>
       </c>
       <c r="Q14">
-        <v>4.424224163290221</v>
+        <v>2.773536022296667</v>
       </c>
       <c r="R14">
-        <v>39.81801746961199</v>
+        <v>24.96182420067</v>
       </c>
       <c r="S14">
-        <v>0.01451414050818438</v>
+        <v>0.006569383675444189</v>
       </c>
       <c r="T14">
-        <v>0.01451414050818438</v>
+        <v>0.006569383675444187</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H15">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I15">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J15">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>14.780035</v>
       </c>
       <c r="O15">
-        <v>0.2666412377882708</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="P15">
-        <v>0.2666412377882707</v>
+        <v>0.2008728953126747</v>
       </c>
       <c r="Q15">
-        <v>1.984994829474445</v>
+        <v>0.7880616128433334</v>
       </c>
       <c r="R15">
-        <v>17.86495346527</v>
+        <v>7.092554515590001</v>
       </c>
       <c r="S15">
-        <v>0.006511987819709775</v>
+        <v>0.001866598830171406</v>
       </c>
       <c r="T15">
-        <v>0.006511987819709773</v>
+        <v>0.001866598830171405</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H16">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I16">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J16">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.463445333333333</v>
+        <v>2.127843333333333</v>
       </c>
       <c r="N16">
-        <v>7.390336</v>
+        <v>6.38353</v>
       </c>
       <c r="O16">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949621</v>
       </c>
       <c r="P16">
-        <v>0.1333263648368368</v>
+        <v>0.08675745039949623</v>
       </c>
       <c r="Q16">
-        <v>0.9925401900657775</v>
+        <v>0.3403655639133333</v>
       </c>
       <c r="R16">
-        <v>8.932861710591999</v>
+        <v>3.06329007522</v>
       </c>
       <c r="S16">
-        <v>0.003256134238894742</v>
+        <v>0.0008061881876710083</v>
       </c>
       <c r="T16">
-        <v>0.003256134238894741</v>
+        <v>0.0008061881876710083</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H17">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I17">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J17">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1059333333333333</v>
+        <v>0.1326736666666667</v>
       </c>
       <c r="N17">
-        <v>0.3178</v>
+        <v>0.398021</v>
       </c>
       <c r="O17">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="P17">
-        <v>0.005733314255961668</v>
+        <v>0.005409434461098778</v>
       </c>
       <c r="Q17">
-        <v>0.04268131684444443</v>
+        <v>0.02122221437266666</v>
       </c>
       <c r="R17">
-        <v>0.3841318515999999</v>
+        <v>0.190999929354</v>
       </c>
       <c r="S17">
-        <v>0.0001400206243830793</v>
+        <v>5.026683177567936E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001400206243830793</v>
+        <v>5.026683177567933E-05</v>
       </c>
     </row>
   </sheetData>
